--- a/results/LCIA/penincillium_totals.xlsx
+++ b/results/LCIA/penincillium_totals.xlsx
@@ -1,95 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\penicilin\results\LCIA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDB83B1-0F31-44F2-985B-081287323E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="totals" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Penicillin G, Defined daily dose</t>
-  </si>
-  <si>
-    <t>Penicillin V, Defined daily dose</t>
-  </si>
-  <si>
-    <t>('acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+  <si>
+    <t>Penicillin G, defined system</t>
+  </si>
+  <si>
+    <t>Penicillin V, defined system</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Terrestrial acidification potential (tap)</t>
+  </si>
+  <si>
+    <t>Global warming potential (gwp1000)</t>
+  </si>
+  <si>
+    <t>Freshwater ecotoxicity potential (fetp)</t>
+  </si>
+  <si>
+    <t>Marine ecotoxicity potential (metp)</t>
+  </si>
+  <si>
+    <t>Terrestrial ecotoxicity potential (tetp)</t>
+  </si>
+  <si>
+    <t>Fossil fuel potential (ffp)</t>
+  </si>
+  <si>
+    <t>Freshwater eutrophication potential (fep)</t>
+  </si>
+  <si>
+    <t>Marine eutrophication potential (mep)</t>
+  </si>
+  <si>
+    <t>Human toxicity potential (htpc)</t>
+  </si>
+  <si>
+    <t>Human toxicity potential (htpnc)</t>
+  </si>
+  <si>
+    <t>Ionising radiation potential (irp)</t>
+  </si>
+  <si>
+    <t>Agricultural land occupation (lop)</t>
+  </si>
+  <si>
+    <t>Surplus ore potential (sop)</t>
+  </si>
+  <si>
+    <t>Ozone depletion potential (odpinfinite)</t>
+  </si>
+  <si>
+    <t>Particulate matter formation potential (pmfp)</t>
+  </si>
+  <si>
+    <t>Photochemical oxidant formation potential: humans (hofp)</t>
+  </si>
+  <si>
+    <t>Photochemical oxidant formation potential: ecosystems (eofp)</t>
+  </si>
+  <si>
+    <t>Water consumption potential (wcp)</t>
+  </si>
+  <si>
+    <t>Ecosystem damage</t>
+  </si>
+  <si>
+    <t>Human health damage</t>
+  </si>
+  <si>
+    <t>Natural resources damage</t>
+  </si>
+  <si>
+    <t>kg SO2-Eq</t>
+  </si>
+  <si>
+    <t>kg CO2-Eq</t>
+  </si>
+  <si>
+    <t>kg 1,4-DCB-Eq</t>
+  </si>
+  <si>
+    <t>kg oil-Eq</t>
+  </si>
+  <si>
+    <t>kg P-Eq</t>
+  </si>
+  <si>
+    <t>kg N-Eq</t>
+  </si>
+  <si>
+    <t>kg Co-60-Eq</t>
+  </si>
+  <si>
+    <t>m2*a crop-Eq</t>
+  </si>
+  <si>
+    <t>kg Cu-Eq</t>
+  </si>
+  <si>
+    <t>kg CFC-11-Eq</t>
+  </si>
+  <si>
+    <t>kg PM2.5-Eq</t>
+  </si>
+  <si>
+    <t>kg NOx-Eq</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
+  </si>
+  <si>
+    <t>species.yr</t>
+  </si>
+  <si>
+    <t>DALYs</t>
+  </si>
+  <si>
+    <t>USD 2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,24 +211,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E63A7FAF-5682-4328-BE91-8190BBA9A74B}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +277,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,6 +311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,9 +346,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,250 +522,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.05008215163835646</v>
-      </c>
-      <c r="C2">
-        <v>0.0008238215168843304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.373725223540579E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.6953588946985319E-4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>13.27983997162195</v>
-      </c>
-      <c r="C3">
-        <v>0.2292873034053466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.0420153476018656</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.5235359018024667E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1.331232968547722</v>
-      </c>
-      <c r="C4">
-        <v>0.01828897261465911</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.28562287433070682</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.9207716147238231E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.866934639489875</v>
-      </c>
-      <c r="C5">
-        <v>0.02411726897156951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38022984505560431</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.7849511921518526E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>74.14302161947946</v>
-      </c>
-      <c r="C6">
-        <v>0.8986475122857916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15.13073021581468</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.29153052361696291</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>3.797113625317194</v>
-      </c>
-      <c r="C7">
-        <v>0.06145382099507946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.136789290720285</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.0156201432799739E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.005126120238988014</v>
-      </c>
-      <c r="C8">
-        <v>0.0001922463228307976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.7348806330220019E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.3680395588667523E-5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.001712952686276796</v>
-      </c>
-      <c r="C9">
-        <v>2.106909937108199E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.9438880763757901E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.929240373529041E-6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1.288384632979656</v>
-      </c>
-      <c r="C10">
-        <v>0.04342276664334675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.5266607085556384</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.43290992601228E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>23.40222953107612</v>
-      </c>
-      <c r="C11">
-        <v>0.416396540106582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.338767046762988</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.13573971274540009</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1.581287875725708</v>
-      </c>
-      <c r="C12">
-        <v>0.1193098155589954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.250501109785177</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.9666225903825417E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1.290581891297914</v>
-      </c>
-      <c r="C13">
-        <v>0.007516393342195496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.25420076215201193</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.4115249984943232E-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.3951508463964849</v>
-      </c>
-      <c r="C14">
-        <v>0.01366765736848401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.1639887634097757</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.521254423241537E-3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>8.543448334585827E-06</v>
-      </c>
-      <c r="C15">
-        <v>1.077187230562718E-07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.8514255366824619E-6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.5380117737463727E-8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.0209669329106608</v>
-      </c>
-      <c r="C16">
-        <v>0.0003363799468424182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.4870721855734888E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.099582560521263E-4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0.03768968078442982</v>
-      </c>
-      <c r="C17">
-        <v>0.0004506594885756312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8.7348857147089808E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.465431171262969E-4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0.03904358349868173</v>
-      </c>
-      <c r="C18">
-        <v>0.0004654247721594315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9.0486127966664838E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.5135703598906719E-4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>0.2096349728168311</v>
-      </c>
-      <c r="C19">
-        <v>0.01202905146961548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.13357080679096631</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.9973151540209726E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>6.969596865349531E-08</v>
-      </c>
-      <c r="C20">
-        <v>1.09770478166065E-09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.9896433225021761E-8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.5965267597875838E-10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>3.563010324895018E-05</v>
-      </c>
-      <c r="C21">
-        <v>6.913849332639973E-07</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.133700427318866E-5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.2677987672799329E-7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1.255783223582434</v>
-      </c>
-      <c r="C22">
-        <v>0.01632815362377414</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.3068775512625162</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.3391020810324699E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
